--- a/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163407</t>
+          <t>340007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全沪深300指数增强(LOF)A</t>
+          <t>兴全社会责任混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.96</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>340007</t>
+          <t>009556</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全社会责任混合</t>
+          <t>兴全合丰三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>85.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>050009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>博时新兴成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>39.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>163407</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>兴全沪深300指数增强(LOF)A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>55.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8909</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>004952</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>兴全恒益债券A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>050009</t>
+          <t>004683</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时新兴成长混合</t>
+          <t>建信高端医疗股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007230</t>
+          <t>001861</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴全沪深300指数增强(LOF)C</t>
+          <t>富安达健康人生灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95.96</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004952</t>
+          <t>007230</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴全恒益债券A</t>
+          <t>兴全沪深300指数增强(LOF)C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.89</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004953</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>兴全恒益债券C</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22.89</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004683</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建信高端医疗股票</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -810,15 +930,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>93.61</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2.83</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005238</t>
+          <t>004953</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华医疗健康量化优选股票C</t>
+          <t>兴全恒益债券C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009556</t>
+          <t>005238</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴全合丰三年持有期混合</t>
+          <t>银华医疗健康量化优选股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>340007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>兴全社会责任混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>63.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>340007</t>
+          <t>050009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全社会责任混合</t>
+          <t>博时新兴成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>050009</t>
+          <t>004952</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时新兴成长混合</t>
+          <t>兴全恒益债券A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>36.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>009893</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>摩根士丹利华鑫优悦安和混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>85.03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.39</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004952</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴全恒益债券A</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>22.45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5539</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,4 +1601,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.87</v>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>4.56</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
@@ -1672,13 +1805,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>16.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,585 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>340007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全社会责任混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>72.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.8571</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009556</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全合丰三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>85.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.4788</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>39.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4535</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>163407</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全沪深300指数增强(LOF)A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>55.78</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8909</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>38.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3638</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004683</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信高端医疗股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1375</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001861</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0661</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>164401</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0601</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007230</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴全沪深300指数增强(LOF)C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005237</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华医疗健康量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005238</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银华医疗健康量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1042,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1063,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1093,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>340007</t>
+          <t>010673</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全社会责任混合</t>
+          <t>兴全中证800六个月持有期指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.77</t>
+          <t>19.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>96.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7676</t>
+          <t>0.4593</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1131,226 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050009</t>
+          <t>010674</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时新兴成长混合</t>
+          <t>兴全中证800六个月持有期指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>96.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4913</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>36.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2031</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009893</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0460</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,7 +953,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1661,36 +983,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010673</t>
+          <t>340007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全中证800六个月持有期指数增强A</t>
+          <t>兴全社会责任混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>63.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.13</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4593</t>
+          <t>2.7676</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1699,36 +1021,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010674</t>
+          <t>050009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全中证800六个月持有期指数增强C</t>
+          <t>博时新兴成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.13</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>1.4913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>0.0460</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1742,96 +1254,584 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8909</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>4.56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.46</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002773-康弘药业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.51</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.87</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4.56</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>16.46</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010673</t>
+          <t>000059</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全中证800六个月持有期指数增强A</t>
+          <t>国联安中证医药100指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.13</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4593</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010674</t>
+          <t>006569</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全中证800六个月持有期指数增强C</t>
+          <t>国联安中证医药100指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.13</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -681,6 +698,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -926,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1248,7 +1397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
